--- a/result/excel/filtered_5_factors_with_sequence.xlsx
+++ b/result/excel/filtered_5_factors_with_sequence.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stanley/Documents/COURSE/PROGRAMME/Python/ICM_2500434/result/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC3F000-F8D0-8C4D-BECE-C54C1A4550B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454297FE-1C6F-174B-BDD6-311699ADDE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28940" yWindow="660" windowWidth="25380" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28940" yWindow="660" windowWidth="51060" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -368,7 +381,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +394,38 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -448,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -456,23 +501,78 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,11 +882,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="189" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -812,22 +915,22 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
-        <v>20</v>
-      </c>
-      <c r="C2" s="3">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3">
-        <v>20</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="B2" s="7">
+        <v>20</v>
+      </c>
+      <c r="C2" s="7">
+        <v>20</v>
+      </c>
+      <c r="D2" s="7">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7">
+        <v>20</v>
+      </c>
+      <c r="F2" s="7">
+        <v>20</v>
+      </c>
+      <c r="G2" s="7">
         <v>100</v>
       </c>
     </row>
@@ -835,22 +938,22 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="B3" s="7">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7">
+        <v>20</v>
+      </c>
+      <c r="G3" s="7">
         <v>100</v>
       </c>
     </row>
@@ -858,22 +961,22 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="B4" s="7">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7">
+        <v>20</v>
+      </c>
+      <c r="F4" s="7">
+        <v>20</v>
+      </c>
+      <c r="G4" s="7">
         <v>100</v>
       </c>
     </row>
@@ -881,22 +984,22 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3">
-        <v>20</v>
-      </c>
-      <c r="F5" s="3">
-        <v>20</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="B5" s="7">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7">
         <v>100</v>
       </c>
     </row>
@@ -904,22 +1007,22 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3">
-        <v>20</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="B6" s="7">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7">
+        <v>20</v>
+      </c>
+      <c r="E6" s="7">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7">
+        <v>20</v>
+      </c>
+      <c r="G6" s="7">
         <v>100</v>
       </c>
     </row>
@@ -927,22 +1030,22 @@
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3">
-        <v>20</v>
-      </c>
-      <c r="F7" s="3">
-        <v>20</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="B7" s="7">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7">
+        <v>20</v>
+      </c>
+      <c r="F7" s="7">
+        <v>20</v>
+      </c>
+      <c r="G7" s="7">
         <v>100</v>
       </c>
     </row>
@@ -950,22 +1053,22 @@
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-      <c r="F8" s="3">
-        <v>20</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="B8" s="7">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7">
+        <v>20</v>
+      </c>
+      <c r="F8" s="7">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7">
         <v>100</v>
       </c>
     </row>
@@ -973,45 +1076,45 @@
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3">
-        <v>20</v>
-      </c>
-      <c r="F9" s="3">
-        <v>20</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="B9" s="7">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7">
+        <v>20</v>
+      </c>
+      <c r="G9" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="B10" s="13">
+        <v>20</v>
+      </c>
+      <c r="C10" s="13">
+        <v>20</v>
+      </c>
+      <c r="D10" s="13">
+        <v>20</v>
+      </c>
+      <c r="E10" s="13">
         <v>19.86</v>
       </c>
-      <c r="F10" s="3">
-        <v>20</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F10" s="13">
+        <v>20</v>
+      </c>
+      <c r="G10" s="13">
         <v>99.86</v>
       </c>
     </row>
@@ -1019,22 +1122,22 @@
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="B11" s="7">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>20</v>
+      </c>
+      <c r="D11" s="7">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7">
         <v>19.86</v>
       </c>
-      <c r="F11" s="3">
-        <v>20</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="F11" s="7">
+        <v>20</v>
+      </c>
+      <c r="G11" s="7">
         <v>99.86</v>
       </c>
     </row>
@@ -1042,1775 +1145,1775 @@
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="3">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3">
-        <v>20</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="B12" s="7">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7">
+        <v>20</v>
+      </c>
+      <c r="E12" s="7">
         <v>19.86</v>
       </c>
-      <c r="F12" s="3">
-        <v>20</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="7">
+        <v>20</v>
+      </c>
+      <c r="G12" s="7">
         <v>99.86</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5">
-        <v>20</v>
-      </c>
-      <c r="C13" s="5">
-        <v>20</v>
-      </c>
-      <c r="D13" s="5">
-        <v>20</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="B13" s="8">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8">
+        <v>20</v>
+      </c>
+      <c r="D13" s="8">
+        <v>20</v>
+      </c>
+      <c r="E13" s="8">
         <v>19.739999999999998</v>
       </c>
-      <c r="F13" s="5">
-        <v>20</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="8">
+        <v>20</v>
+      </c>
+      <c r="G13" s="8">
         <v>99.74</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="5">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5">
-        <v>20</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="B14" s="8">
+        <v>20</v>
+      </c>
+      <c r="C14" s="8">
+        <v>20</v>
+      </c>
+      <c r="D14" s="8">
         <v>19.309999999999999</v>
       </c>
-      <c r="E14" s="5">
-        <v>20</v>
-      </c>
-      <c r="F14" s="5">
-        <v>20</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="E14" s="8">
+        <v>20</v>
+      </c>
+      <c r="F14" s="8">
+        <v>20</v>
+      </c>
+      <c r="G14" s="8">
         <v>99.31</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="5">
-        <v>20</v>
-      </c>
-      <c r="C15" s="5">
-        <v>20</v>
-      </c>
-      <c r="D15" s="5">
-        <v>20</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="B15" s="8">
+        <v>20</v>
+      </c>
+      <c r="C15" s="8">
+        <v>20</v>
+      </c>
+      <c r="D15" s="8">
+        <v>20</v>
+      </c>
+      <c r="E15" s="8">
         <v>19.27</v>
       </c>
-      <c r="F15" s="5">
-        <v>20</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="8">
+        <v>20</v>
+      </c>
+      <c r="G15" s="8">
         <v>99.27</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="5">
-        <v>20</v>
-      </c>
-      <c r="C16" s="5">
-        <v>20</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="8">
+        <v>20</v>
+      </c>
+      <c r="C16" s="8">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8">
         <v>19.22</v>
       </c>
-      <c r="E16" s="5">
-        <v>20</v>
-      </c>
-      <c r="F16" s="5">
-        <v>20</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="E16" s="8">
+        <v>20</v>
+      </c>
+      <c r="F16" s="8">
+        <v>20</v>
+      </c>
+      <c r="G16" s="8">
         <v>99.22</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="5">
-        <v>20</v>
-      </c>
-      <c r="C17" s="5">
-        <v>20</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="B17" s="8">
+        <v>20</v>
+      </c>
+      <c r="C17" s="8">
+        <v>20</v>
+      </c>
+      <c r="D17" s="8">
         <v>19.399999999999999</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="8">
         <v>19.7</v>
       </c>
-      <c r="F17" s="5">
-        <v>20</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="8">
+        <v>20</v>
+      </c>
+      <c r="G17" s="8">
         <v>99.1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="5">
-        <v>20</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="B18" s="8">
+        <v>20</v>
+      </c>
+      <c r="C18" s="8">
         <v>18.98</v>
       </c>
-      <c r="D18" s="5">
-        <v>20</v>
-      </c>
-      <c r="E18" s="5">
-        <v>20</v>
-      </c>
-      <c r="F18" s="5">
-        <v>20</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="D18" s="8">
+        <v>20</v>
+      </c>
+      <c r="E18" s="8">
+        <v>20</v>
+      </c>
+      <c r="F18" s="8">
+        <v>20</v>
+      </c>
+      <c r="G18" s="8">
         <v>98.98</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="5">
-        <v>20</v>
-      </c>
-      <c r="C19" s="5">
-        <v>20</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="B19" s="8">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8">
+        <v>20</v>
+      </c>
+      <c r="D19" s="8">
         <v>18.82</v>
       </c>
-      <c r="E19" s="5">
-        <v>20</v>
-      </c>
-      <c r="F19" s="5">
-        <v>20</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="E19" s="8">
+        <v>20</v>
+      </c>
+      <c r="F19" s="8">
+        <v>20</v>
+      </c>
+      <c r="G19" s="8">
         <v>98.82</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="5">
-        <v>20</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="B20" s="8">
+        <v>20</v>
+      </c>
+      <c r="C20" s="8">
         <v>18.98</v>
       </c>
-      <c r="D20" s="5">
-        <v>20</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D20" s="8">
+        <v>20</v>
+      </c>
+      <c r="E20" s="8">
         <v>19.739999999999998</v>
       </c>
-      <c r="F20" s="5">
-        <v>20</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="8">
+        <v>20</v>
+      </c>
+      <c r="G20" s="8">
         <v>98.72</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="5">
-        <v>20</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="B21" s="8">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8">
         <v>19.38</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="8">
         <v>19.22</v>
       </c>
-      <c r="E21" s="5">
-        <v>20</v>
-      </c>
-      <c r="F21" s="5">
-        <v>20</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="E21" s="8">
+        <v>20</v>
+      </c>
+      <c r="F21" s="8">
+        <v>20</v>
+      </c>
+      <c r="G21" s="8">
         <v>98.6</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="8">
         <v>19.52</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="8">
         <v>19.07</v>
       </c>
-      <c r="D22" s="5">
-        <v>20</v>
-      </c>
-      <c r="E22" s="5">
-        <v>20</v>
-      </c>
-      <c r="F22" s="5">
-        <v>20</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="D22" s="8">
+        <v>20</v>
+      </c>
+      <c r="E22" s="8">
+        <v>20</v>
+      </c>
+      <c r="F22" s="8">
+        <v>20</v>
+      </c>
+      <c r="G22" s="8">
         <v>98.59</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="5">
-        <v>20</v>
-      </c>
-      <c r="C23" s="5">
-        <v>20</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="B23" s="19">
+        <v>20</v>
+      </c>
+      <c r="C23" s="19">
+        <v>20</v>
+      </c>
+      <c r="D23" s="19">
         <v>18.489999999999998</v>
       </c>
-      <c r="E23" s="5">
-        <v>20</v>
-      </c>
-      <c r="F23" s="5">
-        <v>20</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="E23" s="19">
+        <v>20</v>
+      </c>
+      <c r="F23" s="19">
+        <v>20</v>
+      </c>
+      <c r="G23" s="19">
         <v>98.49</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="5">
-        <v>20</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="B24" s="26">
+        <v>20</v>
+      </c>
+      <c r="C24" s="26">
         <v>18.98</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="26">
         <v>19.34</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="26">
         <v>19.760000000000002</v>
       </c>
-      <c r="F24" s="5">
-        <v>20</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="26">
+        <v>20</v>
+      </c>
+      <c r="G24" s="26">
         <v>98.080000000000013</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="5">
-        <v>20</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="B25" s="8">
+        <v>20</v>
+      </c>
+      <c r="C25" s="8">
         <v>19.38</v>
       </c>
-      <c r="D25" s="5">
-        <v>20</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="D25" s="8">
+        <v>20</v>
+      </c>
+      <c r="E25" s="8">
         <v>18.64</v>
       </c>
-      <c r="F25" s="5">
-        <v>20</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="8">
+        <v>20</v>
+      </c>
+      <c r="G25" s="8">
         <v>98.02</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="5">
-        <v>20</v>
-      </c>
-      <c r="C26" s="5">
-        <v>20</v>
-      </c>
-      <c r="D26" s="5">
-        <v>20</v>
-      </c>
-      <c r="E26" s="5">
-        <v>20</v>
-      </c>
-      <c r="F26" s="5">
+      <c r="B26" s="8">
+        <v>20</v>
+      </c>
+      <c r="C26" s="8">
+        <v>20</v>
+      </c>
+      <c r="D26" s="8">
+        <v>20</v>
+      </c>
+      <c r="E26" s="8">
+        <v>20</v>
+      </c>
+      <c r="F26" s="8">
         <v>17.940000000000001</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="8">
         <v>97.94</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="5">
-        <v>20</v>
-      </c>
-      <c r="C27" s="5">
+      <c r="B27" s="15">
+        <v>20</v>
+      </c>
+      <c r="C27" s="15">
         <v>19.600000000000001</v>
       </c>
-      <c r="D27" s="5">
-        <v>20</v>
-      </c>
-      <c r="E27" s="5">
+      <c r="D27" s="15">
+        <v>20</v>
+      </c>
+      <c r="E27" s="15">
         <v>19.07</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="15">
         <v>18.91</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="15">
         <v>97.58</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="5">
-        <v>20</v>
-      </c>
-      <c r="C28" s="5">
+      <c r="B28" s="8">
+        <v>20</v>
+      </c>
+      <c r="C28" s="8">
         <v>18.12</v>
       </c>
-      <c r="D28" s="5">
-        <v>20</v>
-      </c>
-      <c r="E28" s="5">
+      <c r="D28" s="8">
+        <v>20</v>
+      </c>
+      <c r="E28" s="8">
         <v>19.38</v>
       </c>
-      <c r="F28" s="5">
-        <v>20</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="F28" s="8">
+        <v>20</v>
+      </c>
+      <c r="G28" s="8">
         <v>97.5</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="5">
-        <v>20</v>
-      </c>
-      <c r="C29" s="5">
-        <v>20</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="B29" s="8">
+        <v>20</v>
+      </c>
+      <c r="C29" s="8">
+        <v>20</v>
+      </c>
+      <c r="D29" s="8">
         <v>19.22</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="8">
         <v>17.89</v>
       </c>
-      <c r="F29" s="5">
-        <v>20</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="F29" s="8">
+        <v>20</v>
+      </c>
+      <c r="G29" s="8">
         <v>97.11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="8">
         <v>19.59</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="8">
         <v>18.39</v>
       </c>
-      <c r="D30" s="5">
-        <v>20</v>
-      </c>
-      <c r="E30" s="5">
+      <c r="D30" s="8">
+        <v>20</v>
+      </c>
+      <c r="E30" s="8">
         <v>19.03</v>
       </c>
-      <c r="F30" s="5">
-        <v>20</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="F30" s="8">
+        <v>20</v>
+      </c>
+      <c r="G30" s="8">
         <v>97.01</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="5">
-        <v>20</v>
-      </c>
-      <c r="C31" s="5">
-        <v>20</v>
-      </c>
-      <c r="D31" s="5">
+      <c r="B31" s="8">
+        <v>20</v>
+      </c>
+      <c r="C31" s="8">
+        <v>20</v>
+      </c>
+      <c r="D31" s="8">
         <v>19.309999999999999</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="8">
         <v>17.7</v>
       </c>
-      <c r="F31" s="5">
-        <v>20</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="F31" s="8">
+        <v>20</v>
+      </c>
+      <c r="G31" s="8">
         <v>97.01</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="8">
         <v>17.440000000000001</v>
       </c>
-      <c r="C32" s="5">
-        <v>20</v>
-      </c>
-      <c r="D32" s="5">
-        <v>20</v>
-      </c>
-      <c r="E32" s="5">
+      <c r="C32" s="8">
+        <v>20</v>
+      </c>
+      <c r="D32" s="8">
+        <v>20</v>
+      </c>
+      <c r="E32" s="8">
         <v>19.52</v>
       </c>
-      <c r="F32" s="5">
-        <v>20</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="F32" s="8">
+        <v>20</v>
+      </c>
+      <c r="G32" s="8">
         <v>96.96</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="5">
-        <v>20</v>
-      </c>
-      <c r="C33" s="5">
+      <c r="B33" s="8">
+        <v>20</v>
+      </c>
+      <c r="C33" s="8">
         <v>18.11</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="8">
         <v>19.510000000000002</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="8">
         <v>19.190000000000001</v>
       </c>
-      <c r="F33" s="5">
-        <v>20</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="F33" s="8">
+        <v>20</v>
+      </c>
+      <c r="G33" s="8">
         <v>96.81</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="5">
-        <v>20</v>
-      </c>
-      <c r="C34" s="5">
+      <c r="B34" s="8">
+        <v>20</v>
+      </c>
+      <c r="C34" s="8">
         <v>18.350000000000001</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="8">
         <v>19.22</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="8">
         <v>19.22</v>
       </c>
-      <c r="F34" s="5">
-        <v>20</v>
-      </c>
-      <c r="G34" s="5">
+      <c r="F34" s="8">
+        <v>20</v>
+      </c>
+      <c r="G34" s="8">
         <v>96.789999999999992</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="7">
-        <v>20</v>
-      </c>
-      <c r="C35" s="7">
+      <c r="B35" s="9">
+        <v>20</v>
+      </c>
+      <c r="C35" s="9">
         <v>18.21</v>
       </c>
-      <c r="D35" s="7">
-        <v>20</v>
-      </c>
-      <c r="E35" s="7">
-        <v>20</v>
-      </c>
-      <c r="F35" s="7">
+      <c r="D35" s="9">
+        <v>20</v>
+      </c>
+      <c r="E35" s="9">
+        <v>20</v>
+      </c>
+      <c r="F35" s="9">
         <v>18.48</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="9">
         <v>96.690000000000012</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="7">
-        <v>20</v>
-      </c>
-      <c r="C36" s="7">
+      <c r="B36" s="9">
+        <v>20</v>
+      </c>
+      <c r="C36" s="9">
         <v>19.22</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="9">
         <v>18.16</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="9">
         <v>19.100000000000001</v>
       </c>
-      <c r="F36" s="7">
-        <v>20</v>
-      </c>
-      <c r="G36" s="7">
+      <c r="F36" s="9">
+        <v>20</v>
+      </c>
+      <c r="G36" s="9">
         <v>96.47999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="7">
-        <v>20</v>
-      </c>
-      <c r="C37" s="7">
-        <v>20</v>
-      </c>
-      <c r="D37" s="7">
+      <c r="B37" s="9">
+        <v>20</v>
+      </c>
+      <c r="C37" s="9">
+        <v>20</v>
+      </c>
+      <c r="D37" s="9">
         <v>17.29</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="9">
         <v>19.09</v>
       </c>
-      <c r="F37" s="7">
-        <v>20</v>
-      </c>
-      <c r="G37" s="7">
+      <c r="F37" s="9">
+        <v>20</v>
+      </c>
+      <c r="G37" s="9">
         <v>96.38</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="7">
-        <v>20</v>
-      </c>
-      <c r="C38" s="7">
+      <c r="B38" s="9">
+        <v>20</v>
+      </c>
+      <c r="C38" s="9">
         <v>17.95</v>
       </c>
-      <c r="D38" s="7">
-        <v>20</v>
-      </c>
-      <c r="E38" s="7">
+      <c r="D38" s="9">
+        <v>20</v>
+      </c>
+      <c r="E38" s="9">
         <v>19.440000000000001</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="9">
         <v>18.850000000000001</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="9">
         <v>96.240000000000009</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="7">
-        <v>20</v>
-      </c>
-      <c r="C39" s="7">
+      <c r="B39" s="9">
+        <v>20</v>
+      </c>
+      <c r="C39" s="9">
         <v>15.3</v>
       </c>
-      <c r="D39" s="7">
-        <v>20</v>
-      </c>
-      <c r="E39" s="7">
+      <c r="D39" s="9">
+        <v>20</v>
+      </c>
+      <c r="E39" s="9">
         <v>19.739999999999998</v>
       </c>
-      <c r="F39" s="7">
-        <v>20</v>
-      </c>
-      <c r="G39" s="7">
+      <c r="F39" s="9">
+        <v>20</v>
+      </c>
+      <c r="G39" s="9">
         <v>95.039999999999992</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="9">
         <v>19.149999999999999</v>
       </c>
-      <c r="C40" s="7">
-        <v>20</v>
-      </c>
-      <c r="D40" s="7">
+      <c r="C40" s="9">
+        <v>20</v>
+      </c>
+      <c r="D40" s="9">
         <v>19.510000000000002</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="9">
         <v>19.45</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="9">
         <v>16.579999999999998</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="9">
         <v>94.69</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="7">
-        <v>20</v>
-      </c>
-      <c r="C41" s="7">
-        <v>20</v>
-      </c>
-      <c r="D41" s="7">
-        <v>20</v>
-      </c>
-      <c r="E41" s="7">
+      <c r="B41" s="9">
+        <v>20</v>
+      </c>
+      <c r="C41" s="9">
+        <v>20</v>
+      </c>
+      <c r="D41" s="9">
+        <v>20</v>
+      </c>
+      <c r="E41" s="9">
         <v>18.45</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="9">
         <v>15.99</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="9">
         <v>94.44</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="7">
-        <v>20</v>
-      </c>
-      <c r="C42" s="7">
+      <c r="B42" s="9">
+        <v>20</v>
+      </c>
+      <c r="C42" s="9">
         <v>19.38</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="9">
         <v>18.3</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="9">
         <v>16.36</v>
       </c>
-      <c r="F42" s="7">
-        <v>20</v>
-      </c>
-      <c r="G42" s="7">
+      <c r="F42" s="9">
+        <v>20</v>
+      </c>
+      <c r="G42" s="9">
         <v>94.039999999999992</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="7">
-        <v>20</v>
-      </c>
-      <c r="C43" s="7">
+      <c r="B43" s="9">
+        <v>20</v>
+      </c>
+      <c r="C43" s="9">
         <v>17.93</v>
       </c>
-      <c r="D43" s="7">
-        <v>20</v>
-      </c>
-      <c r="E43" s="7">
+      <c r="D43" s="9">
+        <v>20</v>
+      </c>
+      <c r="E43" s="9">
         <v>19.920000000000002</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="9">
         <v>15.99</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="9">
         <v>93.839999999999989</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="7">
-        <v>20</v>
-      </c>
-      <c r="C44" s="7">
+      <c r="B44" s="9">
+        <v>20</v>
+      </c>
+      <c r="C44" s="9">
         <v>18.02</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="9">
         <v>18.05</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="9">
         <v>17.690000000000001</v>
       </c>
-      <c r="F44" s="7">
-        <v>20</v>
-      </c>
-      <c r="G44" s="7">
+      <c r="F44" s="9">
+        <v>20</v>
+      </c>
+      <c r="G44" s="9">
         <v>93.759999999999991</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="9">
         <v>19.27</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="9">
         <v>17.87</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="9">
         <v>18.34</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="9">
         <v>18.12</v>
       </c>
-      <c r="F45" s="7">
-        <v>20</v>
-      </c>
-      <c r="G45" s="7">
+      <c r="F45" s="9">
+        <v>20</v>
+      </c>
+      <c r="G45" s="9">
         <v>93.600000000000009</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="7">
-        <v>20</v>
-      </c>
-      <c r="C46" s="7">
+      <c r="B46" s="9">
+        <v>20</v>
+      </c>
+      <c r="C46" s="9">
         <v>18.440000000000001</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="9">
         <v>16.66</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="9">
         <v>18.440000000000001</v>
       </c>
-      <c r="F46" s="7">
-        <v>20</v>
-      </c>
-      <c r="G46" s="7">
+      <c r="F46" s="9">
+        <v>20</v>
+      </c>
+      <c r="G46" s="9">
         <v>93.539999999999992</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="7">
-        <v>20</v>
-      </c>
-      <c r="C47" s="7">
+      <c r="B47" s="9">
+        <v>20</v>
+      </c>
+      <c r="C47" s="9">
         <v>19.11</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="9">
         <v>19.510000000000002</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="9">
         <v>17.170000000000002</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="9">
         <v>17.7</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="9">
         <v>93.490000000000009</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="9">
         <v>18.899999999999999</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="9">
         <v>15.3</v>
       </c>
-      <c r="D48" s="7">
-        <v>20</v>
-      </c>
-      <c r="E48" s="7">
+      <c r="D48" s="9">
+        <v>20</v>
+      </c>
+      <c r="E48" s="9">
         <v>18.98</v>
       </c>
-      <c r="F48" s="7">
-        <v>20</v>
-      </c>
-      <c r="G48" s="7">
+      <c r="F48" s="9">
+        <v>20</v>
+      </c>
+      <c r="G48" s="9">
         <v>93.18</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="7">
-        <v>20</v>
-      </c>
-      <c r="C49" s="7">
-        <v>20</v>
-      </c>
-      <c r="D49" s="7">
+      <c r="B49" s="9">
+        <v>20</v>
+      </c>
+      <c r="C49" s="9">
+        <v>20</v>
+      </c>
+      <c r="D49" s="9">
         <v>18.68</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="9">
         <v>16.84</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="9">
         <v>17.440000000000001</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="9">
         <v>92.96</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="9">
         <v>17.79</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="9">
         <v>19.25</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="9">
         <v>17.05</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="9">
         <v>18.79</v>
       </c>
-      <c r="F50" s="7">
-        <v>20</v>
-      </c>
-      <c r="G50" s="7">
+      <c r="F50" s="9">
+        <v>20</v>
+      </c>
+      <c r="G50" s="9">
         <v>92.88</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="7">
-        <v>20</v>
-      </c>
-      <c r="C51" s="7">
+      <c r="B51" s="9">
+        <v>20</v>
+      </c>
+      <c r="C51" s="9">
         <v>17.62</v>
       </c>
-      <c r="D51" s="7">
-        <v>20</v>
-      </c>
-      <c r="E51" s="7">
+      <c r="D51" s="9">
+        <v>20</v>
+      </c>
+      <c r="E51" s="9">
         <v>14.97</v>
       </c>
-      <c r="F51" s="7">
-        <v>20</v>
-      </c>
-      <c r="G51" s="7">
+      <c r="F51" s="9">
+        <v>20</v>
+      </c>
+      <c r="G51" s="9">
         <v>92.59</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="7">
-        <v>20</v>
-      </c>
-      <c r="C52" s="7">
+      <c r="B52" s="9">
+        <v>20</v>
+      </c>
+      <c r="C52" s="9">
         <v>19.25</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="9">
         <v>16.350000000000001</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="9">
         <v>16.32</v>
       </c>
-      <c r="F52" s="7">
-        <v>20</v>
-      </c>
-      <c r="G52" s="7">
+      <c r="F52" s="9">
+        <v>20</v>
+      </c>
+      <c r="G52" s="9">
         <v>91.92</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="7">
-        <v>20</v>
-      </c>
-      <c r="C53" s="7">
+      <c r="B53" s="17">
+        <v>20</v>
+      </c>
+      <c r="C53" s="17">
         <v>17.14</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="17">
         <v>18.34</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="17">
         <v>18.46</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="17">
         <v>17.7</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="17">
         <v>91.64</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="7">
-        <v>20</v>
-      </c>
-      <c r="C54" s="7">
+      <c r="B54" s="9">
+        <v>20</v>
+      </c>
+      <c r="C54" s="9">
         <v>14.89</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="9">
         <v>17.3</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="9">
         <v>19.43</v>
       </c>
-      <c r="F54" s="7">
-        <v>20</v>
-      </c>
-      <c r="G54" s="7">
+      <c r="F54" s="9">
+        <v>20</v>
+      </c>
+      <c r="G54" s="9">
         <v>91.62</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="7">
-        <v>20</v>
-      </c>
-      <c r="C55" s="7">
+      <c r="B55" s="9">
+        <v>20</v>
+      </c>
+      <c r="C55" s="9">
         <v>19.600000000000001</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="9">
         <v>17.54</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="9">
         <v>18.27</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="9">
         <v>15.85</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="9">
         <v>91.259999999999991</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="7">
-        <v>20</v>
-      </c>
-      <c r="C56" s="7">
+      <c r="B56" s="9">
+        <v>20</v>
+      </c>
+      <c r="C56" s="9">
         <v>13.52</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="9">
         <v>19.670000000000002</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="9">
         <v>17.71</v>
       </c>
-      <c r="F56" s="7">
-        <v>20</v>
-      </c>
-      <c r="G56" s="7">
+      <c r="F56" s="9">
+        <v>20</v>
+      </c>
+      <c r="G56" s="9">
         <v>90.9</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="9">
         <v>19.59</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="9">
         <v>16.22</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="9">
         <v>15.75</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="9">
         <v>17.64</v>
       </c>
-      <c r="F57" s="7">
-        <v>20</v>
-      </c>
-      <c r="G57" s="7">
+      <c r="F57" s="9">
+        <v>20</v>
+      </c>
+      <c r="G57" s="9">
         <v>89.2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="9">
         <v>18.420000000000002</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="9">
         <v>18.23</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="9">
         <v>17.559999999999999</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="9">
         <v>18.36</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="9">
         <v>16.59</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="9">
         <v>89.160000000000011</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="7">
-        <v>20</v>
-      </c>
-      <c r="C59" s="7">
+      <c r="B59" s="9">
+        <v>20</v>
+      </c>
+      <c r="C59" s="9">
         <v>19.399999999999999</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="9">
         <v>18.96</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="9">
         <v>12.63</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="9">
         <v>17.739999999999998</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="9">
         <v>88.72999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="7">
-        <v>20</v>
-      </c>
-      <c r="C60" s="7">
+      <c r="B60" s="9">
+        <v>20</v>
+      </c>
+      <c r="C60" s="9">
         <v>17.39</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="9">
         <v>19.34</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="9">
         <v>16.739999999999998</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="9">
         <v>14.28</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="9">
         <v>87.75</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="9">
         <v>19.21</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="9">
         <v>17.89</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="9">
         <v>18.600000000000001</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="9">
         <v>13.78</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="9">
         <v>17.7</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="9">
         <v>87.18</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="10">
         <v>19.21</v>
       </c>
-      <c r="C62" s="9">
-        <v>20</v>
-      </c>
-      <c r="D62" s="9">
+      <c r="C62" s="10">
+        <v>20</v>
+      </c>
+      <c r="D62" s="10">
         <v>16.420000000000002</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="10">
         <v>17.11</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="10">
         <v>14.28</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="10">
         <v>87.02000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="9">
-        <v>20</v>
-      </c>
-      <c r="C63" s="9">
+      <c r="B63" s="10">
+        <v>20</v>
+      </c>
+      <c r="C63" s="10">
         <v>18.38</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="10">
         <v>19.47</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="10">
         <v>12.08</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="10">
         <v>16.579999999999998</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="10">
         <v>86.509999999999991</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="9">
-        <v>20</v>
-      </c>
-      <c r="C64" s="9">
+      <c r="B64" s="10">
+        <v>20</v>
+      </c>
+      <c r="C64" s="10">
         <v>18.57</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="10">
         <v>14.84</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="10">
         <v>12.84</v>
       </c>
-      <c r="F64" s="9">
-        <v>20</v>
-      </c>
-      <c r="G64" s="9">
+      <c r="F64" s="10">
+        <v>20</v>
+      </c>
+      <c r="G64" s="10">
         <v>86.25</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="10">
         <v>18.39</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="10">
         <v>19.600000000000001</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="10">
         <v>17.34</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="10">
         <v>17.05</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="10">
         <v>13.39</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G65" s="10">
         <v>85.77</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="10">
         <v>19.420000000000002</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="10">
         <v>17.350000000000001</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="10">
         <v>15.97</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="10">
         <v>14.61</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="10">
         <v>16.579999999999998</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="10">
         <v>83.929999999999993</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="9">
-        <v>20</v>
-      </c>
-      <c r="C67" s="9">
+      <c r="B67" s="10">
+        <v>20</v>
+      </c>
+      <c r="C67" s="10">
         <v>13.51</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="10">
         <v>18.27</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="10">
         <v>15.16</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F67" s="10">
         <v>16.8</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G67" s="10">
         <v>83.74</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="10">
         <v>16.41</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="10">
         <v>18.21</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="10">
         <v>17.61</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="10">
         <v>13.59</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F68" s="10">
         <v>17.12</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G68" s="10">
         <v>82.940000000000012</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="9">
-        <v>20</v>
-      </c>
-      <c r="C69" s="9">
+      <c r="B69" s="10">
+        <v>20</v>
+      </c>
+      <c r="C69" s="10">
         <v>14.89</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="10">
         <v>19.34</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="10">
         <v>14.12</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F69" s="10">
         <v>14.28</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G69" s="10">
         <v>82.63000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="10">
         <v>19.47</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="10">
         <v>15.3</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="10">
         <v>17.440000000000001</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="10">
         <v>16.14</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F70" s="10">
         <v>14.28</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G70" s="10">
         <v>82.63</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="10">
         <v>19.52</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="10">
         <v>18.88</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="10">
         <v>16.57</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="10">
         <v>13.15</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F71" s="10">
         <v>14.28</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G71" s="10">
         <v>82.4</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="10">
         <v>19.18</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="10">
         <v>17.8</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="10">
         <v>14.23</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="10">
         <v>14.97</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="10">
         <v>15.82</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="10">
         <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="10">
         <v>19.52</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="10">
         <v>16.53</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="10">
         <v>15.12</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="10">
         <v>13.32</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="10">
         <v>14.11</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G73" s="10">
         <v>78.599999999999994</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="10">
         <v>18.829999999999998</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="10">
         <v>14.37</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="10">
         <v>12.12</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="10">
         <v>15.33</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F74" s="10">
         <v>15.69</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G74" s="10">
         <v>76.339999999999989</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="22">
         <v>18.68</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="22">
         <v>9.31</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="22">
         <v>18.12</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="22">
         <v>12.16</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75" s="22">
         <v>16.8</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G75" s="22">
         <v>75.069999999999993</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="10">
         <v>18.940000000000001</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="10">
         <v>15.3</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="10">
         <v>17.61</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="10">
         <v>5.28</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F76" s="10">
         <v>17.7</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G76" s="10">
         <v>74.83</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="10">
         <v>17.809999999999999</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="10">
         <v>8.4700000000000006</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="10">
         <v>17.66</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="10">
         <v>14.03</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F77" s="10">
         <v>16.8</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G77" s="10">
         <v>74.77</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="9">
-        <v>20</v>
-      </c>
-      <c r="C78" s="9">
+      <c r="B78" s="10">
+        <v>20</v>
+      </c>
+      <c r="C78" s="10">
         <v>14.49</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="10">
         <v>17.239999999999998</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="10">
         <v>11.7</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F78" s="10">
         <v>11.13</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G78" s="10">
         <v>74.56</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="10">
         <v>17.2</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="10">
         <v>14.89</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="10">
         <v>11.35</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="10">
         <v>10.76</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F79" s="10">
         <v>16.18</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G79" s="10">
         <v>70.38</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80" s="10">
         <v>14.69</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="10">
         <v>13.81</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D80" s="10">
         <v>13.41</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="10">
         <v>11.52</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F80" s="10">
         <v>16.8</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G80" s="10">
         <v>70.22999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B81" s="10">
         <v>14.02</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="10">
         <v>14.49</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="10">
         <v>13.15</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="10">
         <v>7.14</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F81" s="10">
         <v>17.739999999999998</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G81" s="10">
         <v>66.539999999999992</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B82" s="9">
+      <c r="B82" s="10">
         <v>13.92</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="10">
         <v>11.83</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D82" s="10">
         <v>15.79</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="10">
         <v>7.93</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F82" s="10">
         <v>16.579999999999998</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G82" s="10">
         <v>66.05</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83" s="10">
         <v>19.21</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="10">
         <v>8.89</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D83" s="10">
         <v>19.47</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E83" s="10">
         <v>9.0399999999999991</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F83" s="10">
         <v>9.2799999999999994</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G83" s="10">
         <v>65.89</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B84" s="10">
         <v>13.37</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="10">
         <v>16.22</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D84" s="10">
         <v>10.91</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84" s="10">
         <v>15.14</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F84" s="10">
         <v>10.23</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G84" s="10">
         <v>65.87</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="9">
+      <c r="B85" s="10">
         <v>19.18</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="10">
         <v>8.57</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="10">
         <v>11.02</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E85" s="10">
         <v>13.91</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F85" s="10">
         <v>13.19</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G85" s="10">
         <v>65.86999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="9">
+      <c r="B86" s="10">
         <v>18.61</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86" s="10">
         <v>2.78</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D86" s="10">
         <v>11.97</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E86" s="10">
         <v>8.98</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F86" s="10">
         <v>19.11</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G86" s="10">
         <v>61.45</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="9">
+      <c r="B87" s="10">
         <v>16.899999999999999</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="10">
         <v>5.8</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="10">
         <v>11.88</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="10">
         <v>12.16</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F87" s="10">
         <v>13.89</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G87" s="10">
         <v>60.63</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88" s="10">
         <v>16.41</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="10">
         <v>6.58</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="10">
         <v>15.82</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="10">
         <v>8.26</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F88" s="10">
         <v>11.13</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G88" s="10">
         <v>58.2</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B89" s="11">
@@ -2833,7 +2936,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B90" s="11">
@@ -2856,7 +2959,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B91" s="11">
@@ -2879,7 +2982,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B92" s="11">
@@ -2902,7 +3005,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B93" s="11">
@@ -2925,7 +3028,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B94" s="11">
@@ -2948,7 +3051,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B95" s="11">
@@ -2971,7 +3074,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B96" s="11">
@@ -2994,7 +3097,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B97" s="11">
@@ -3017,7 +3120,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B98" s="11">
@@ -3040,30 +3143,30 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B99" s="11">
+      <c r="B99" s="24">
         <v>5.66</v>
       </c>
-      <c r="C99" s="11">
+      <c r="C99" s="24">
         <v>3.54</v>
       </c>
-      <c r="D99" s="11">
+      <c r="D99" s="24">
         <v>16.350000000000001</v>
       </c>
-      <c r="E99" s="11">
+      <c r="E99" s="24">
         <v>4.57</v>
       </c>
-      <c r="F99" s="11">
+      <c r="F99" s="24">
         <v>6.81</v>
       </c>
-      <c r="G99" s="11">
+      <c r="G99" s="24">
         <v>36.93</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B100" s="11">
@@ -3086,7 +3189,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B101" s="11">
@@ -3109,7 +3212,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B102" s="11">
@@ -3132,7 +3235,7 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B103" s="11">
@@ -3155,7 +3258,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B104" s="11">
@@ -3178,7 +3281,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B105" s="11">
@@ -3201,7 +3304,7 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B106" s="11">
@@ -3224,7 +3327,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B107" s="11">
@@ -3247,7 +3350,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B108" s="11">
@@ -3270,7 +3373,7 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B109" s="11">
